--- a/data/original/Root_dmg_20.xlsx
+++ b/data/original/Root_dmg_20.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{CA6B4E08-6BB8-4395-A582-C1858B2A3657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B293D8E-2D5F-4933-A1E5-7A6FDE262F8D}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{CA6B4E08-6BB8-4395-A582-C1858B2A3657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B12A7EF3-D553-4ECA-B298-B74C9BFAD988}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7515" windowWidth="29040" windowHeight="15720" xr2:uid="{1763FC28-A486-4426-BD00-6F7CA94555A9}"/>
   </bookViews>
@@ -72,6 +72,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,7 +113,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,6 +132,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
     <dxf>
       <font>
@@ -241,16 +245,20 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB03440F-AD60-46B4-A0CD-8B148414DC9E}" name="Tabla535" displayName="Tabla535" ref="A1:F485" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F485" xr:uid="{7F76055B-7275-47D3-8C12-1235C3A8AA54}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{909839C7-F19B-43C3-B621-703AED9169CE}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E634E4E8-EE61-4E3A-AF98-D4AED0AC25A3}" name="Field" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{719DCEC6-572A-4B09-9B89-01E0DE3D84E4}" name="Treatment" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{D7423F52-C7A3-4AF9-95BD-40FE88DCA23D}" name="Repeat" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{11ECB033-36EA-423E-BD29-2FA714EA3191}" name="Root_weight" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{B6AECE14-5F77-43BD-B0DD-128A807E961B}" name="Observations" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{909839C7-F19B-43C3-B621-703AED9169CE}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E634E4E8-EE61-4E3A-AF98-D4AED0AC25A3}" name="Field" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{719DCEC6-572A-4B09-9B89-01E0DE3D84E4}" name="Treatment" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{D7423F52-C7A3-4AF9-95BD-40FE88DCA23D}" name="Repeat" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{11ECB033-36EA-423E-BD29-2FA714EA3191}" name="Root_weight" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{B6AECE14-5F77-43BD-B0DD-128A807E961B}" name="Observations" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -556,7 +564,7 @@
   <dimension ref="A1:F485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A2" sqref="A2:A485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9303,8 +9311,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>